--- a/assets/data.xlsx
+++ b/assets/data.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mr.brownstone/Desktop/anno/assets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19FB9C0-BDFA-C24A-90C2-D82E680D2928}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="1040" yWindow="500" windowWidth="27760" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="resident"/>
-    <sheet r:id="rId2" sheetId="2" name="product"/>
-    <sheet r:id="rId3" sheetId="3" name="consume"/>
-    <sheet r:id="rId4" sheetId="4" name="link"/>
+    <sheet name="resident" sheetId="1" r:id="rId1"/>
+    <sheet name="product" sheetId="2" r:id="rId2"/>
+    <sheet name="consume" sheetId="3" r:id="rId3"/>
+    <sheet name="link" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="522">
   <si>
     <t>鱼</t>
   </si>
@@ -184,28 +190,733 @@
     <t>长老</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>electricity</t>
-  </si>
-  <si>
-    <t>dependence</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>true</t>
+    <t>advanced_weaponry</t>
+  </si>
+  <si>
+    <t>icon_alpaca_wool.png</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>icon_banana.png</t>
+  </si>
+  <si>
+    <t>beams</t>
+  </si>
+  <si>
+    <t>icon_beams.png</t>
+  </si>
+  <si>
+    <t>icon_bear_fur.png</t>
+  </si>
+  <si>
+    <t>icon_beer.png</t>
+  </si>
+  <si>
+    <t>icon_beeswax.png</t>
+  </si>
+  <si>
+    <t>billard</t>
+  </si>
+  <si>
+    <t>icon_billard.png</t>
+  </si>
+  <si>
+    <t>bowler_hat</t>
+  </si>
+  <si>
+    <t>icon_bowler_hat.png</t>
+  </si>
+  <si>
+    <t>brass</t>
+  </si>
+  <si>
+    <t>icon_brass.png</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>icon_bread.png</t>
+  </si>
+  <si>
+    <t>bricks</t>
+  </si>
+  <si>
+    <t>icon_bricks.png</t>
+  </si>
+  <si>
+    <t>bubble_gum</t>
+  </si>
+  <si>
+    <t>icon_bubble_gum.png</t>
+  </si>
+  <si>
+    <t>burrito</t>
+  </si>
+  <si>
+    <t>icon_burrito.png</t>
+  </si>
+  <si>
+    <t>candles</t>
+  </si>
+  <si>
+    <t>icon_candles.png</t>
+  </si>
+  <si>
+    <t>canned_food</t>
+  </si>
+  <si>
+    <t>icon_canned_food.png</t>
+  </si>
+  <si>
+    <t>icon_caoutchouc.png</t>
+  </si>
+  <si>
+    <t>carbon_filament</t>
+  </si>
+  <si>
+    <t>icon_carbon_filament.png</t>
+  </si>
+  <si>
+    <t>icon_celluloid.png</t>
+  </si>
+  <si>
+    <t>icon_cellulose.png</t>
+  </si>
+  <si>
+    <t>icon_cement.png</t>
+  </si>
+  <si>
+    <t>ceramics</t>
+  </si>
+  <si>
+    <t>icon_ceramics.png</t>
+  </si>
+  <si>
+    <t>champagne</t>
+  </si>
+  <si>
+    <t>icon_champagne.png</t>
+  </si>
+  <si>
+    <t>chassis</t>
+  </si>
+  <si>
+    <t>icon_chassis.png</t>
+  </si>
+  <si>
+    <t>icon_cherry_wood.png</t>
+  </si>
+  <si>
+    <t>chocolate</t>
+  </si>
+  <si>
+    <t>icon_chocolate.png</t>
+  </si>
+  <si>
+    <t>cigars</t>
+  </si>
+  <si>
+    <t>icon_cigars.png</t>
+  </si>
+  <si>
+    <t>icon_cinamon.png</t>
+  </si>
+  <si>
+    <t>citrus</t>
+  </si>
+  <si>
+    <t>icon_citrus.png</t>
+  </si>
+  <si>
+    <t>clay</t>
+  </si>
+  <si>
+    <t>icon_clay.png</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>icon_coal.png</t>
+  </si>
+  <si>
+    <t>cocoa</t>
+  </si>
+  <si>
+    <t>icon_cocoa.png</t>
+  </si>
+  <si>
+    <t>coconut</t>
+  </si>
+  <si>
+    <t>icon_coconut.png</t>
+  </si>
+  <si>
+    <t>coffe_cup</t>
+  </si>
+  <si>
+    <t>icon_coffe_cup.png</t>
+  </si>
+  <si>
+    <t>coffee_beans</t>
+  </si>
+  <si>
+    <t>icon_coffee_beans.png</t>
+  </si>
+  <si>
+    <t>cognac</t>
+  </si>
+  <si>
+    <t>icon_cognac.png</t>
+  </si>
+  <si>
+    <t>cookie</t>
+  </si>
+  <si>
+    <t>icon_cookie.png</t>
+  </si>
+  <si>
+    <t>icon_copper.png</t>
+  </si>
+  <si>
+    <t>icon_corn.png</t>
+  </si>
+  <si>
+    <t>icon_cotton_fur.png</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>icon_cotton.png</t>
+  </si>
+  <si>
+    <t>dried_meat</t>
+  </si>
+  <si>
+    <t>icon_dried_meat.png</t>
+  </si>
+  <si>
+    <t>dung</t>
+  </si>
+  <si>
+    <t>icon_dung.png</t>
+  </si>
+  <si>
+    <t>icon_dynamite.png</t>
+  </si>
+  <si>
+    <t>elevator</t>
+  </si>
+  <si>
+    <t>icon_elevator.png</t>
+  </si>
+  <si>
+    <t>icon_ethanol.png</t>
+  </si>
+  <si>
+    <t>icon_felt.png</t>
+  </si>
+  <si>
+    <t>fish_stew</t>
+  </si>
+  <si>
+    <t>icon_fish_stew.png</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>icon_fish.png</t>
+  </si>
+  <si>
+    <t>fishoil</t>
+  </si>
+  <si>
+    <t>icon_fishoil.png</t>
+  </si>
+  <si>
+    <t>icon_flour.png</t>
+  </si>
+  <si>
+    <t>fried_bananas</t>
+  </si>
+  <si>
+    <t>icon_fried_bananas.png</t>
+  </si>
+  <si>
+    <t>fur_coats</t>
+  </si>
+  <si>
+    <t>icon_fur_coats.png</t>
+  </si>
+  <si>
+    <t>fur_parka</t>
+  </si>
+  <si>
+    <t>icon_fur_parka.png</t>
+  </si>
+  <si>
+    <t>fur</t>
+  </si>
+  <si>
+    <t>icon_fur.png</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>icon_glass.png</t>
+  </si>
+  <si>
+    <t>glasses</t>
+  </si>
+  <si>
+    <t>icon_glasses.png</t>
+  </si>
+  <si>
+    <t>goat_milk</t>
+  </si>
+  <si>
+    <t>icon_goat_milk.png</t>
+  </si>
+  <si>
+    <t>gold_ore</t>
+  </si>
+  <si>
+    <t>icon_gold_ore.png</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>icon_gold.png</t>
+  </si>
+  <si>
+    <t>goose_feathers</t>
+  </si>
+  <si>
+    <t>icon_goose_feathers.png</t>
+  </si>
+  <si>
+    <t>grapes</t>
+  </si>
+  <si>
+    <t>icon_grapes.png</t>
+  </si>
+  <si>
+    <t>hibiscus_farm</t>
+  </si>
+  <si>
+    <t>icon_hibiscus_farm.png</t>
+  </si>
+  <si>
+    <t>hibiscus_tea</t>
+  </si>
+  <si>
+    <t>icon_hibiscus_tea.png</t>
+  </si>
+  <si>
+    <t>high_wheeler</t>
+  </si>
+  <si>
+    <t>icon_high_wheeler.png</t>
+  </si>
+  <si>
+    <t>icon_hops.png</t>
+  </si>
+  <si>
+    <t>indigo</t>
+  </si>
+  <si>
+    <t>icon_indigo.png</t>
+  </si>
+  <si>
+    <t>inlay</t>
+  </si>
+  <si>
+    <t>icon_inlay.png</t>
+  </si>
+  <si>
+    <t>icon_iron.png</t>
+  </si>
+  <si>
+    <t>jam</t>
+  </si>
+  <si>
+    <t>icon_jam.png</t>
+  </si>
+  <si>
+    <t>jewelry</t>
+  </si>
+  <si>
+    <t>icon_jewelry.png</t>
+  </si>
+  <si>
+    <t>lacquer</t>
+  </si>
+  <si>
+    <t>icon_lacquer.png</t>
+  </si>
+  <si>
+    <t>lanterns</t>
+  </si>
+  <si>
+    <t>icon_lanterns.png</t>
+  </si>
+  <si>
+    <t>leather_shoes</t>
+  </si>
+  <si>
+    <t>icon_leather_shoes.png</t>
+  </si>
+  <si>
+    <t>lemonade</t>
+  </si>
+  <si>
+    <t>icon_lemonade.png</t>
+  </si>
+  <si>
+    <t>light_bulb</t>
+  </si>
+  <si>
+    <t>icon_light_bulb.png</t>
+  </si>
+  <si>
+    <t>linen_fabric</t>
+  </si>
+  <si>
+    <t>icon_linen_fabric.png</t>
+  </si>
+  <si>
+    <t>linen_farm</t>
+  </si>
+  <si>
+    <t>icon_linen_farm.png</t>
+  </si>
+  <si>
+    <t>icon_malt.png</t>
+  </si>
+  <si>
+    <t>meat_sausage</t>
+  </si>
+  <si>
+    <t>icon_meat_sausage.png</t>
+  </si>
+  <si>
+    <t>mud_bricks</t>
+  </si>
+  <si>
+    <t>niter</t>
+  </si>
+  <si>
+    <t>icon_niter.png</t>
+  </si>
+  <si>
+    <t>oil_lamps</t>
+  </si>
+  <si>
+    <t>icon_oil_lamps.png</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>icon_oil.png</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>icon_paper.png</t>
+  </si>
+  <si>
+    <t>pearls</t>
+  </si>
+  <si>
+    <t>icon_pearls.png</t>
+  </si>
+  <si>
+    <t>pemmican</t>
+  </si>
+  <si>
+    <t>icon_pemmican.png</t>
+  </si>
+  <si>
+    <t>icon_pepper.png</t>
+  </si>
+  <si>
+    <t>phonographs</t>
+  </si>
+  <si>
+    <t>icon_phonographs.png</t>
+  </si>
+  <si>
+    <t>pigs</t>
+  </si>
+  <si>
+    <t>icon_pigs.png</t>
+  </si>
+  <si>
+    <t>pocket_watch</t>
+  </si>
+  <si>
+    <t>icon_pocket_watch.png</t>
+  </si>
+  <si>
+    <t>poncho</t>
+  </si>
+  <si>
+    <t>icon_poncho.png</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>icon_potatoes.png</t>
+  </si>
+  <si>
+    <t>quartz_sand</t>
+  </si>
+  <si>
+    <t>icon_quartz_sand.png</t>
+  </si>
+  <si>
+    <t>reindeer_meat</t>
+  </si>
+  <si>
+    <t>icon_reindeer_meat.png</t>
+  </si>
+  <si>
+    <t>reinforced_concrete</t>
+  </si>
+  <si>
+    <t>icon_reinforced_concrete.png</t>
+  </si>
+  <si>
+    <t>rum</t>
+  </si>
+  <si>
+    <t>icon_rum.png</t>
+  </si>
+  <si>
+    <t>sail</t>
+  </si>
+  <si>
+    <t>icon_sail.png</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>icon_salt.png</t>
+  </si>
+  <si>
+    <t>scriptures</t>
+  </si>
+  <si>
+    <t>icon_scriptures.png</t>
+  </si>
+  <si>
+    <t>seafood</t>
+  </si>
+  <si>
+    <t>icon_seafood.png</t>
+  </si>
+  <si>
+    <t>seal_skin</t>
+  </si>
+  <si>
+    <t>icon_seal_skin.png</t>
+  </si>
+  <si>
+    <t>sewing_machine</t>
+  </si>
+  <si>
+    <t>icon_sewing_machine.png</t>
+  </si>
+  <si>
+    <t>shampoo</t>
+  </si>
+  <si>
+    <t>icon_shampoo.png</t>
+  </si>
+  <si>
+    <t>sled_frame</t>
+  </si>
+  <si>
+    <t>icon_sled_frame.png</t>
+  </si>
+  <si>
+    <t>sled</t>
+  </si>
+  <si>
+    <t>icon_sled.png</t>
+  </si>
+  <si>
+    <t>sleeping_bags</t>
+  </si>
+  <si>
+    <t>icon_sleeping_bags.png</t>
+  </si>
+  <si>
+    <t>souvenir</t>
+  </si>
+  <si>
+    <t>icon_souvenir.png</t>
+  </si>
+  <si>
+    <t>spices</t>
+  </si>
+  <si>
+    <t>icon_spices.png</t>
+  </si>
+  <si>
+    <t>steam_carriage</t>
+  </si>
+  <si>
+    <t>icon_steam_carriage.png</t>
+  </si>
+  <si>
+    <t>icon_steam_machine.png</t>
+  </si>
+  <si>
+    <t>steel</t>
+  </si>
+  <si>
+    <t>icon_steel.png</t>
+  </si>
+  <si>
+    <t>icon_suger.png</t>
+  </si>
+  <si>
+    <t>suits</t>
+  </si>
+  <si>
+    <t>icon_suits.png</t>
+  </si>
+  <si>
+    <t>tabasco_sauce</t>
+  </si>
+  <si>
+    <t>icon_tabasco_sauce.png</t>
+  </si>
+  <si>
+    <t>tallow</t>
+  </si>
+  <si>
+    <t>icon_tallow.png</t>
+  </si>
+  <si>
+    <t>tapestries</t>
+  </si>
+  <si>
+    <t>icon_tapestries.png</t>
+  </si>
+  <si>
+    <t>teff_flour</t>
+  </si>
+  <si>
+    <t>icon_teff_flour.png</t>
+  </si>
+  <si>
+    <t>teff_grass</t>
+  </si>
+  <si>
+    <t>icon_teff_grass.png</t>
+  </si>
+  <si>
+    <t>telephones</t>
+  </si>
+  <si>
+    <t>icon_telephones.png</t>
+  </si>
+  <si>
+    <t>tobacco_pipes</t>
+  </si>
+  <si>
+    <t>icon_tobacco_pipes.png</t>
+  </si>
+  <si>
+    <t>tobacco</t>
+  </si>
+  <si>
+    <t>icon_tobacco.png</t>
+  </si>
+  <si>
+    <t>toys</t>
+  </si>
+  <si>
+    <t>icon_toys.png</t>
+  </si>
+  <si>
+    <t>traditional_clothing</t>
+  </si>
+  <si>
+    <t>icon_traditional_clothing.png</t>
+  </si>
+  <si>
+    <t>typewriter</t>
+  </si>
+  <si>
+    <t>icon_typewriter.png</t>
+  </si>
+  <si>
+    <t>violin</t>
+  </si>
+  <si>
+    <t>icon_violin.png</t>
+  </si>
+  <si>
+    <t>wansa_wood</t>
+  </si>
+  <si>
+    <t>icon_wansa_wood.png</t>
+  </si>
+  <si>
+    <t>wat_stew</t>
+  </si>
+  <si>
+    <t>icon_wat_stew.png</t>
+  </si>
+  <si>
+    <t>watusi</t>
+  </si>
+  <si>
+    <t>icon_watusi.png</t>
+  </si>
+  <si>
+    <t>weapons</t>
+  </si>
+  <si>
+    <t>icon_weapons.png</t>
+  </si>
+  <si>
+    <t>icon_wood_log.png</t>
+  </si>
+  <si>
+    <t>wood_resin</t>
+  </si>
+  <si>
+    <t>icon_wood_resin.png</t>
+  </si>
+  <si>
+    <t>wooden_planks</t>
   </si>
   <si>
     <t>icon_wooden_planks.png</t>
   </si>
   <si>
-    <t>false</t>
+    <t>wool</t>
+  </si>
+  <si>
+    <t>icon_wool.png</t>
+  </si>
+  <si>
+    <t>icon_working_cloth.png</t>
   </si>
   <si>
     <t>name:string</t>
@@ -223,100 +934,774 @@
     <t>farmer</t>
   </si>
   <si>
-    <t>fish;wood</t>
+    <t>worker</t>
+  </si>
+  <si>
+    <t>artisan</t>
+  </si>
+  <si>
+    <t>engineer</t>
+  </si>
+  <si>
+    <t>investor</t>
+  </si>
+  <si>
+    <t>投资者</t>
+  </si>
+  <si>
+    <t>scholars</t>
+  </si>
+  <si>
+    <t>tourist</t>
+  </si>
+  <si>
+    <t>jornalero</t>
+  </si>
+  <si>
+    <t>obrera</t>
+  </si>
+  <si>
+    <t>explorer</t>
+  </si>
+  <si>
+    <t>icon_residenta_explorer.png</t>
+  </si>
+  <si>
+    <t>technician</t>
+  </si>
+  <si>
+    <t>icon_resident_technician.png</t>
+  </si>
+  <si>
+    <t>sheperd</t>
+  </si>
+  <si>
+    <t>icon_resident_sheperd.png</t>
+  </si>
+  <si>
+    <t>elde</t>
+  </si>
+  <si>
+    <t>icon_resident_elder.png</t>
+  </si>
+  <si>
+    <t>高级武器</t>
+  </si>
+  <si>
+    <t>羊驼毛</t>
+  </si>
+  <si>
+    <t>香蕉</t>
+  </si>
+  <si>
+    <t>梁</t>
+  </si>
+  <si>
+    <t>熊毛皮</t>
+  </si>
+  <si>
+    <t>蜂蜡</t>
+  </si>
+  <si>
+    <t>台球</t>
+  </si>
+  <si>
+    <t>黄铜</t>
+  </si>
+  <si>
+    <t>砖块</t>
+  </si>
+  <si>
+    <t>墨西哥卷饼</t>
+  </si>
+  <si>
+    <t>蜡烛</t>
+  </si>
+  <si>
+    <t>罐头食品</t>
+  </si>
+  <si>
+    <t>水泥</t>
+  </si>
+  <si>
+    <t>樱桃木</t>
+  </si>
+  <si>
+    <t>肉桂</t>
+  </si>
+  <si>
+    <t>柑橘</t>
+  </si>
+  <si>
+    <t>粘土</t>
+  </si>
+  <si>
+    <t>煤炭</t>
+  </si>
+  <si>
+    <t>可可</t>
+  </si>
+  <si>
+    <t>椰子</t>
+  </si>
+  <si>
+    <t>咖啡杯</t>
+  </si>
+  <si>
+    <t>咖啡豆</t>
+  </si>
+  <si>
+    <t>铜</t>
+  </si>
+  <si>
+    <t>玉米</t>
+  </si>
+  <si>
+    <t>干肉</t>
+  </si>
+  <si>
+    <t>粪</t>
+  </si>
+  <si>
+    <t>炸药</t>
+  </si>
+  <si>
+    <t>电梯</t>
+  </si>
+  <si>
+    <t>乙醇</t>
+  </si>
+  <si>
+    <t>毛毡</t>
+  </si>
+  <si>
+    <t>鱼汤</t>
+  </si>
+  <si>
+    <t>鱼油</t>
+  </si>
+  <si>
+    <t>面粉</t>
+  </si>
+  <si>
+    <t>炸香蕉</t>
+  </si>
+  <si>
+    <t>毛皮</t>
+  </si>
+  <si>
+    <t>玻璃</t>
+  </si>
+  <si>
+    <t>山羊奶</t>
+  </si>
+  <si>
+    <t>金子</t>
+  </si>
+  <si>
+    <t>金矿</t>
+  </si>
+  <si>
+    <t>鹅毛</t>
+  </si>
+  <si>
+    <t>葡萄</t>
+  </si>
+  <si>
+    <t>芙蓉农场</t>
+  </si>
+  <si>
+    <t>芙蓉茶</t>
+  </si>
+  <si>
+    <t>高轮车</t>
+  </si>
+  <si>
+    <t>靛青</t>
+  </si>
+  <si>
+    <t>镶嵌</t>
+  </si>
+  <si>
+    <t>铁</t>
+  </si>
+  <si>
+    <t>漆</t>
+  </si>
+  <si>
+    <t>灯笼</t>
+  </si>
+  <si>
+    <t>皮鞋</t>
+  </si>
+  <si>
+    <t>柠檬汽水</t>
+  </si>
+  <si>
+    <t>亚麻布</t>
+  </si>
+  <si>
+    <t>亚麻农场</t>
+  </si>
+  <si>
+    <t>麦芽</t>
+  </si>
+  <si>
+    <t>肉香肠</t>
+  </si>
+  <si>
+    <t>泥砖</t>
+  </si>
+  <si>
+    <t>硝</t>
+  </si>
+  <si>
+    <t>油</t>
+  </si>
+  <si>
+    <t>油灯</t>
+  </si>
+  <si>
+    <t>纸</t>
+  </si>
+  <si>
+    <t>珍珠</t>
+  </si>
+  <si>
+    <t>干肉干</t>
+  </si>
+  <si>
+    <t>猪</t>
+  </si>
+  <si>
+    <t>土豆</t>
+  </si>
+  <si>
+    <t>石英砂</t>
+  </si>
+  <si>
+    <t>驯鹿肉</t>
+  </si>
+  <si>
+    <t>钢筋混凝土</t>
+  </si>
+  <si>
+    <t>帆</t>
+  </si>
+  <si>
+    <t>盐</t>
+  </si>
+  <si>
+    <t>经文</t>
+  </si>
+  <si>
+    <t>海鲜</t>
+  </si>
+  <si>
+    <t>海豹皮</t>
+  </si>
+  <si>
+    <t>缝纫机</t>
+  </si>
+  <si>
+    <t>雪橇</t>
+  </si>
+  <si>
+    <t>雪橇框架</t>
+  </si>
+  <si>
+    <t>睡袋</t>
+  </si>
+  <si>
+    <t>香料</t>
+  </si>
+  <si>
+    <t>钢</t>
+  </si>
+  <si>
+    <t>糖</t>
+  </si>
+  <si>
+    <t>挂毯</t>
+  </si>
+  <si>
+    <t>锡矿</t>
+  </si>
+  <si>
+    <t>烟草</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>羊毛</t>
+  </si>
+  <si>
+    <t>工作服</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘蔗</t>
+  </si>
+  <si>
+    <t>sugar_cane</t>
+  </si>
+  <si>
+    <t>sugar_cane</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_sugar_cane.png</t>
+  </si>
+  <si>
+    <t>image:string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dependence:string_array</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>electricity:bool</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>time:double</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>name:string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>口香糖</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>红椒炖肉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡胶</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯丝</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛璐璐</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>樟脑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶罐</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_cereals.png</t>
+  </si>
+  <si>
+    <t>cereals</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷物</t>
+  </si>
+  <si>
+    <t>底盘</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>coal_mine</t>
+  </si>
+  <si>
+    <t>煤矿</t>
+  </si>
+  <si>
+    <t>白兰地</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>饼干</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊皮大衣</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>天然气</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗户</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_goulash.png</t>
+  </si>
+  <si>
+    <t>goulash</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>啤酒花</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>披风</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_schnapps.png</t>
+  </si>
+  <si>
+    <t>icon_soap.png</t>
+  </si>
+  <si>
+    <t>soap</t>
+  </si>
+  <si>
+    <t>红椒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制服装</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣椒酱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>油脂</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>华丽衣服</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>万扎木材</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>海鲜炖汤</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>万扎牛</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲸油</t>
+  </si>
+  <si>
+    <t>icon_whale_oil.png</t>
+  </si>
+  <si>
+    <t>whale_oil</t>
+  </si>
+  <si>
+    <t>原木</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>树脂</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>木材</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_advanced_weaponry.png</t>
+  </si>
+  <si>
+    <t>蒸汽机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_mud_bricks.png</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_glass_window.png</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>glass_window</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_natural_gas.png</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>natural_gas</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛皮大衣</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>香槟</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dynamite</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>steam_machine</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dynamite,steeel</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>steeel</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>hops</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>malt</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>hops,malt</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cherry_wood</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>felt</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>alpaca_wool</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>celluloid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cherry_wood,felt,celluloid</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>棉花</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cotton</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cellulose</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cement</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ethanol</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cotton,cellulose,ethanol</t>
+  </si>
+  <si>
+    <t>corn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wood_log</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>corn,wood_log</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>棉布</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cotton_fur</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cotton_fur,felt</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>copper</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>zinc_ore</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_zinc_ore.png</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>copper,zinc_ore</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>flour</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>clay</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cinamon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>suger</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>caoutchouc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cinamon,suger,caoutchouc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_meat_raw.png</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>meat_raw</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>corn,meat_raw</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>beeswax</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cotton,beeswax</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pepper</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>meat_raw,pepper</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>goulash,iron</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>beer</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bear_fur</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_coal_mine.png</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>working_cloth</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>schnapps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish,working_cloth,schnapps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>icon_resident_farmer.png</t>
-  </si>
-  <si>
-    <t>worker</t>
-  </si>
-  <si>
-    <t>fish</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>icon_resident_worker.png</t>
-  </si>
-  <si>
-    <t>artisan</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>icon_resident_artisan.png</t>
-  </si>
-  <si>
-    <t>engineer</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>icon_resident_engineer.png</t>
-  </si>
-  <si>
-    <t>investor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>icon_resident_investor.png</t>
-  </si>
-  <si>
-    <t>投资者</t>
-  </si>
-  <si>
-    <t>scholars</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>icon_resident_scholars.png</t>
-  </si>
-  <si>
-    <t>tourist</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>icon_resident_tourist.png</t>
-  </si>
-  <si>
-    <t>jornalero</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>icon_resident_jornalero.png</t>
-  </si>
-  <si>
-    <t>obrera</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>icon_resident_obrera.png</t>
-  </si>
-  <si>
-    <t>explorer</t>
-  </si>
-  <si>
-    <t>icon_residenta_explorer.png</t>
-  </si>
-  <si>
-    <t>technician</t>
-  </si>
-  <si>
-    <t>icon_resident_technician.png</t>
-  </si>
-  <si>
-    <t>sheperd</t>
-  </si>
-  <si>
-    <t>icon_resident_sheperd.png</t>
-  </si>
-  <si>
-    <t>elde</t>
-  </si>
-  <si>
-    <t>icon_resident_elder.png</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -333,11 +1718,55 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="SimHei"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -367,59 +1796,67 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -430,10 +1867,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -471,71 +1908,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -563,7 +2000,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -586,11 +2023,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -599,13 +2036,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -615,7 +2052,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -624,7 +2061,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -633,7 +2070,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -641,10 +2078,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -709,397 +2146,2390 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="28.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="38.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="14.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="28.5" style="15" customWidth="1"/>
+    <col min="5" max="5" width="38" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:8" ht="19.5" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>63</v>
+        <v>298</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>64</v>
+        <v>299</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
+        <v>300</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" ht="21.75" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>67</v>
+        <v>302</v>
       </c>
       <c r="B2" s="5">
         <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" ht="21.75" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>70</v>
+        <v>303</v>
       </c>
       <c r="B3" s="5">
         <v>20</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="4" t="s">
+      <c r="C3" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" ht="22.5" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>73</v>
+        <v>304</v>
       </c>
       <c r="B4" s="5">
         <v>30</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="4" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="14"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="1:8" ht="21.75" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>75</v>
+        <v>305</v>
       </c>
       <c r="B5" s="5">
         <v>40</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="4" t="s">
+      <c r="C5" s="11"/>
+      <c r="E5" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" ht="21.75" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="B6" s="5">
         <v>50</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
+      <c r="C6" s="11"/>
+      <c r="E6" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" ht="21.75" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="B7" s="5">
         <v>120</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="4" t="s">
+      <c r="C7" s="11"/>
+      <c r="E7" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" ht="21.75" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>82</v>
+        <v>309</v>
       </c>
       <c r="B8" s="5">
         <v>500</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="4" t="s">
+      <c r="C8" s="11"/>
+      <c r="E8" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" ht="21.75" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>84</v>
+        <v>310</v>
       </c>
       <c r="B9" s="5">
         <v>20</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="4" t="s">
+      <c r="C9" s="11"/>
+      <c r="E9" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" ht="21.75" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>86</v>
+        <v>311</v>
       </c>
       <c r="B10" s="5">
         <v>10</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="4" t="s">
+      <c r="C10" s="11"/>
+      <c r="E10" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" ht="21.75" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>88</v>
+        <v>312</v>
       </c>
       <c r="B11" s="5">
         <v>20</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="4" t="s">
+      <c r="C11" s="11"/>
+      <c r="E11" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" ht="21.75" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>90</v>
+        <v>314</v>
       </c>
       <c r="B12" s="5">
         <v>20</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="4" t="s">
+      <c r="C12" s="11"/>
+      <c r="E12" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21">
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" ht="21" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>92</v>
+        <v>316</v>
       </c>
       <c r="B13" s="5">
         <v>10</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="4" t="s">
+      <c r="C13" s="11"/>
+      <c r="E13" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="10"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21">
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" ht="21" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>94</v>
+        <v>318</v>
       </c>
       <c r="B14" s="5">
         <v>20</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="4" t="s">
+      <c r="C14" s="11"/>
+      <c r="E14" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H147"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="34" customHeight="1"/>
   <cols>
-    <col min="1" max="1" style="12" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="13.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="39.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="23.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="17" style="15" customWidth="1"/>
+    <col min="5" max="5" width="39" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="50">
+    <row r="1" spans="1:8" ht="34" customHeight="1">
       <c r="A1" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="34" customHeight="1">
+      <c r="A2" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="50">
-      <c r="A2" s="10"/>
       <c r="B2" s="5">
-        <v>30</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="10"/>
+        <v>120</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
       <c r="E2" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="50">
-      <c r="A3" s="10"/>
+        <v>454</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="H2" s="19"/>
+    </row>
+    <row r="3" spans="1:8" ht="34" customHeight="1">
+      <c r="A3" s="20" t="s">
+        <v>473</v>
+      </c>
       <c r="B3" s="5">
         <v>30</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="D3" s="10"/>
       <c r="E3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="34" customHeight="1">
+      <c r="A4" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="13">
+        <v>30</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="34" customHeight="1">
+      <c r="A5" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="13">
+        <v>30</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="34" customHeight="1">
+      <c r="A6" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="B6" s="13">
+        <v>90</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12" t="s">
         <v>61</v>
       </c>
+      <c r="G6" s="22" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="34" customHeight="1">
+      <c r="A7" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="B7" s="13">
+        <v>60</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="34" customHeight="1">
+      <c r="A8" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="B8" s="13">
+        <v>30</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="34" customHeight="1">
+      <c r="A9" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="13">
+        <v>60</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="34" customHeight="1">
+      <c r="A10" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="13">
+        <v>30</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="34" customHeight="1">
+      <c r="A11" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="13">
+        <v>30</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="34" customHeight="1">
+      <c r="A12" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="13">
+        <v>60</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="34" customHeight="1">
+      <c r="A13" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="13">
+        <v>60</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="34" customHeight="1">
+      <c r="A14" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="13">
+        <v>30</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="34" customHeight="1">
+      <c r="A15" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="13">
+        <v>30</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="34" customHeight="1">
+      <c r="A16" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="13">
+        <v>30</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="34" customHeight="1">
+      <c r="A17" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="13">
+        <v>90</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="34" customHeight="1">
+      <c r="A18" s="20" t="s">
+        <v>496</v>
+      </c>
+      <c r="B18" s="13">
+        <v>60</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="34" customHeight="1">
+      <c r="A19" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="34" customHeight="1">
+      <c r="A20" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="B20" s="13">
+        <v>30</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="34" customHeight="1">
+      <c r="A21" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="B21" s="13">
+        <v>30</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="34" customHeight="1">
+      <c r="A22" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="34" customHeight="1">
+      <c r="A23" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="34" customHeight="1">
+      <c r="A24" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="B24" s="13">
+        <v>60</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="34" customHeight="1">
+      <c r="A25" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="34" customHeight="1">
+      <c r="A26" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="34" customHeight="1">
+      <c r="A27" s="20" t="s">
+        <v>471</v>
+      </c>
+      <c r="B27" s="13">
+        <v>30</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="34" customHeight="1">
+      <c r="A28" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="34" customHeight="1">
+      <c r="A29" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="34" customHeight="1">
+      <c r="A30" s="20" t="s">
+        <v>494</v>
+      </c>
+      <c r="B30" s="13">
+        <v>30</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="34" customHeight="1">
+      <c r="A31" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="34" customHeight="1">
+      <c r="A32" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="B32" s="13">
+        <v>30</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="34" customHeight="1">
+      <c r="A33" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="34" customHeight="1">
+      <c r="A34" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="34" customHeight="1">
+      <c r="A35" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="34" customHeight="1">
+      <c r="A36" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="34" customHeight="1">
+      <c r="A37" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="34" customHeight="1">
+      <c r="A38" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="34" customHeight="1">
+      <c r="A39" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="34" customHeight="1">
+      <c r="A40" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="34" customHeight="1">
+      <c r="A41" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="B41" s="13">
+        <v>30</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="34" customHeight="1">
+      <c r="A42" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="B42" s="13">
+        <v>60</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G42" s="22" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="34" customHeight="1">
+      <c r="A43" s="20" t="s">
+        <v>486</v>
+      </c>
+      <c r="B43" s="13">
+        <v>30</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="34" customHeight="1">
+      <c r="A44" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="B44" s="13">
+        <v>60</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="34" customHeight="1">
+      <c r="A45" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="34" customHeight="1">
+      <c r="A46" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="34" customHeight="1">
+      <c r="A47" s="20" t="s">
+        <v>464</v>
+      </c>
+      <c r="B47" s="13">
+        <v>60</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="34" customHeight="1">
+      <c r="A48" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="34" customHeight="1">
+      <c r="A49" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="B49" s="13">
+        <v>30</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="34" customHeight="1">
+      <c r="A50" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="B50" s="13">
+        <v>30</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="34" customHeight="1">
+      <c r="A51" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" s="13"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="34" customHeight="1">
+      <c r="A52" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="34" customHeight="1">
+      <c r="A53" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" s="13"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="34" customHeight="1">
+      <c r="A54" s="20" t="s">
+        <v>492</v>
+      </c>
+      <c r="B54" s="13">
+        <v>30</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="34" customHeight="1">
+      <c r="A55" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="34" customHeight="1">
+      <c r="A56" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="34" customHeight="1">
+      <c r="A57" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" s="13">
+        <v>90</v>
+      </c>
+      <c r="D57" s="11"/>
+      <c r="E57" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="34" customHeight="1">
+      <c r="A58" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="13"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G58" s="22" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="34" customHeight="1">
+      <c r="A59" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="B59" s="13"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="G59" s="22" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="34" customHeight="1">
+      <c r="A60" s="20" t="s">
+        <v>459</v>
+      </c>
+      <c r="B60" s="13"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="G60" s="22" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="34" customHeight="1">
+      <c r="A61" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B61" s="13"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="G61" s="22" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="34" customHeight="1">
+      <c r="A62" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" s="13"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G62" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="34" customHeight="1">
+      <c r="A63" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B63" s="13"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G63" s="22" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="34" customHeight="1">
+      <c r="A64" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B64" s="13"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G64" s="22" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="34" customHeight="1">
+      <c r="A65" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B65" s="13"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G65" s="22" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="34" customHeight="1">
+      <c r="A66" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B66" s="13"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G66" s="22" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="34" customHeight="1">
+      <c r="A67" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="B67" s="13">
+        <v>120</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="D67" s="11"/>
+      <c r="E67" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="G67" s="22" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="34" customHeight="1">
+      <c r="A68" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B68" s="13"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="G68" s="22" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="34" customHeight="1">
+      <c r="A69" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B69" s="13"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="G69" s="22" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="34" customHeight="1">
+      <c r="A70" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B70" s="13"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G70" s="22" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="34" customHeight="1">
+      <c r="A71" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B71" s="13"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G71" s="22" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="34" customHeight="1">
+      <c r="A72" s="20" t="s">
+        <v>468</v>
+      </c>
+      <c r="B72" s="13"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="G72" s="22" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="34" customHeight="1">
+      <c r="A73" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B73" s="13"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="G73" s="22" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="34" customHeight="1">
+      <c r="A74" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="B74" s="13"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="G74" s="22" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="34" customHeight="1">
+      <c r="A75" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="B75" s="13">
+        <v>15</v>
+      </c>
+      <c r="D75" s="11"/>
+      <c r="E75" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="G75" s="22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="34" customHeight="1">
+      <c r="A76" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="B76" s="13"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="G76" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="34" customHeight="1">
+      <c r="A77" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="B77" s="13"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="G77" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="34" customHeight="1">
+      <c r="A78" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B78" s="13"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G78" s="22" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="34" customHeight="1">
+      <c r="A79" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="B79" s="13"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="G79" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="34" customHeight="1">
+      <c r="A80" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="B80" s="13"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G80" s="22" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="34" customHeight="1">
+      <c r="A81" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B81" s="13"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G81" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="34" customHeight="1">
+      <c r="A82" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="B82" s="13"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G82" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="34" customHeight="1">
+      <c r="A83" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B83" s="13"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="G83" s="22" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="34" customHeight="1">
+      <c r="A84" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="B84" s="13"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="G84" s="22" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="34" customHeight="1">
+      <c r="A85" s="20" t="s">
+        <v>469</v>
+      </c>
+      <c r="B85" s="13"/>
+      <c r="D85" s="11">
+        <v>30</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="G85" s="22" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="34" customHeight="1">
+      <c r="A86" s="20" t="s">
+        <v>499</v>
+      </c>
+      <c r="B86" s="13">
+        <v>120</v>
+      </c>
+      <c r="D86" s="11"/>
+      <c r="E86" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="G86" s="22" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="34" customHeight="1">
+      <c r="A87" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B87" s="13"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G87" s="22" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="34" customHeight="1">
+      <c r="A88" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="B88" s="13"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="G88" s="22" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="34" customHeight="1">
+      <c r="A89" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B89" s="13"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="G89" s="22" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="34" customHeight="1">
+      <c r="A90" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="B90" s="13"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="G90" s="22" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="34" customHeight="1">
+      <c r="A91" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B91" s="13"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="G91" s="22" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="34" customHeight="1">
+      <c r="A92" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B92" s="13"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="G92" s="22" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="34" customHeight="1">
+      <c r="A93" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B93" s="13"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="G93" s="22" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="34" customHeight="1">
+      <c r="A94" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B94" s="13"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="G94" s="22" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="34" customHeight="1">
+      <c r="A95" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B95" s="13">
+        <v>120</v>
+      </c>
+      <c r="D95" s="11"/>
+      <c r="E95" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="G95" s="22" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="34" customHeight="1">
+      <c r="A96" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="B96" s="13"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G96" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="34" customHeight="1">
+      <c r="A97" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B97" s="13"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="G97" s="22" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="34" customHeight="1">
+      <c r="A98" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B98" s="13"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="G98" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="34" customHeight="1">
+      <c r="A99" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="B99" s="13"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G99" s="23" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="34" customHeight="1">
+      <c r="A100" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="B100" s="13"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="G100" s="22" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="34" customHeight="1">
+      <c r="A101" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B101" s="13"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="G101" s="22" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="34" customHeight="1">
+      <c r="A102" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="B102" s="13"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="G102" s="22" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="34" customHeight="1">
+      <c r="A103" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="B103" s="13"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="G103" s="22" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="34" customHeight="1">
+      <c r="A104" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="B104" s="13"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="G104" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="34" customHeight="1">
+      <c r="A105" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="B105" s="13"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="G105" s="22" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="34" customHeight="1">
+      <c r="A106" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="B106" s="13"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="G106" s="22" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="34" customHeight="1">
+      <c r="A107" s="20" t="s">
+        <v>511</v>
+      </c>
+      <c r="B107" s="13"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="G107" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="34" customHeight="1">
+      <c r="A108" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="B108" s="13"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="G108" s="22" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="34" customHeight="1">
+      <c r="A109" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="B109" s="13"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="G109" s="22" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="34" customHeight="1">
+      <c r="A110" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="B110" s="13"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="G110" s="22" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="34" customHeight="1">
+      <c r="A111" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="B111" s="13"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="G111" s="22" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="34" customHeight="1">
+      <c r="A112" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="B112" s="13"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="G112" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="34" customHeight="1">
+      <c r="A113" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="B113" s="13"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="G113" s="22" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="34" customHeight="1">
+      <c r="A114" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="B114" s="13"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="G114" s="22" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="34" customHeight="1">
+      <c r="A115" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="B115" s="13"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="G115" s="22" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="34" customHeight="1">
+      <c r="A116" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="B116" s="13"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="G116" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="34" customHeight="1">
+      <c r="A117" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="B117" s="13"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="G117" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="34" customHeight="1">
+      <c r="A118" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="B118" s="13"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="G118" s="22" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="34" customHeight="1">
+      <c r="A119" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="B119" s="13"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="G119" s="22" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="34" customHeight="1">
+      <c r="A120" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="B120" s="13"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="G120" s="23" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="34" customHeight="1">
+      <c r="A121" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="B121" s="13">
+        <v>30</v>
+      </c>
+      <c r="D121" s="11"/>
+      <c r="E121" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="G121" s="22" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="34" customHeight="1">
+      <c r="A122" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="B122" s="13">
+        <v>30</v>
+      </c>
+      <c r="D122" s="11"/>
+      <c r="E122" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="G122" s="22" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="34" customHeight="1">
+      <c r="A123" s="20" t="s">
+        <v>495</v>
+      </c>
+      <c r="B123" s="13">
+        <v>30</v>
+      </c>
+      <c r="C123" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="D123" s="11"/>
+      <c r="E123" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="G123" s="22" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="34" customHeight="1">
+      <c r="A124" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="B124" s="13"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G124" s="23" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="34" customHeight="1">
+      <c r="A125" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="B125" s="13"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="G125" s="23" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="34" customHeight="1">
+      <c r="A126" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="B126" s="13"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="G126" s="23" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="34" customHeight="1">
+      <c r="A127" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="B127" s="13"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="G127" s="22" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="34" customHeight="1">
+      <c r="A128" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="B128" s="13"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="G128" s="22" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="34" customHeight="1">
+      <c r="A129" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="B129" s="13"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="G129" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="34" customHeight="1">
+      <c r="A130" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="B130" s="13"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="G130" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="34" customHeight="1">
+      <c r="A131" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="B131" s="13">
+        <v>30</v>
+      </c>
+      <c r="D131" s="11"/>
+      <c r="E131" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="G131" s="22" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="34" customHeight="1">
+      <c r="A132" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="B132" s="13"/>
+      <c r="D132" s="11"/>
+      <c r="E132" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="G132" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="34" customHeight="1">
+      <c r="A133" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="B133" s="13"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="G133" s="22" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="34" customHeight="1">
+      <c r="A134" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="B134" s="13"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G134" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="34" customHeight="1">
+      <c r="A135" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="B135" s="13"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="G135" s="23" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="34" customHeight="1">
+      <c r="A136" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="B136" s="13"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="G136" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="34" customHeight="1">
+      <c r="A137" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="B137" s="13"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="G137" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="34" customHeight="1">
+      <c r="A138" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="B138" s="13"/>
+      <c r="D138" s="11"/>
+      <c r="E138" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="G138" s="23" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="34" customHeight="1">
+      <c r="A139" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="B139" s="13"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="G139" s="23" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="34" customHeight="1">
+      <c r="A140" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="B140" s="13"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="G140" s="23" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="34" customHeight="1">
+      <c r="A141" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="B141" s="13"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="G141" s="22" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="34" customHeight="1">
+      <c r="A142" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="B142" s="13"/>
+      <c r="D142" s="11"/>
+      <c r="E142" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="G142" s="22" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="34" customHeight="1">
+      <c r="A143" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="B143" s="13">
+        <v>15</v>
+      </c>
+      <c r="D143" s="11"/>
+      <c r="E143" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="G143" s="23" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="34" customHeight="1">
+      <c r="A144" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="B144" s="17"/>
+      <c r="D144" s="18"/>
+      <c r="E144" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="G144" s="23" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="34" customHeight="1">
+      <c r="A145" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="B145" s="17"/>
+      <c r="D145" s="18"/>
+      <c r="E145" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="G145" s="23" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="34" customHeight="1">
+      <c r="A146" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G146" s="22" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="34" customHeight="1">
+      <c r="A147" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G147" s="23" t="s">
+        <v>404</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="G2:H152">
+    <sortCondition ref="H1"/>
+  </sortState>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AQ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane state="frozen" activePane="topRight" topLeftCell="R1" ySplit="0" xSplit="17"/>
+      <pane xSplit="17" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="8.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="8.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="39" max="39" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="40" max="40" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="41" max="41" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="42" max="42" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="43" max="43" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="43" width="13.5" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="44" customFormat="1" s="1">
+    <row r="1" spans="1:43" s="1" customFormat="1" ht="44" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1228,7 +4658,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:43" ht="18.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>42</v>
       </c>
@@ -1359,7 +4789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:43" ht="18.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
@@ -1490,7 +4920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:43" ht="18.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>44</v>
       </c>
@@ -1621,7 +5051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:43" ht="18.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>45</v>
       </c>
@@ -1752,7 +5182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:43" ht="18.75" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>46</v>
       </c>
@@ -1883,7 +5313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:43" ht="18.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>47</v>
       </c>
@@ -2014,7 +5444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:43" ht="18.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>48</v>
       </c>
@@ -2145,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="15">
+    <row r="9" spans="1:43" ht="15" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>49</v>
       </c>
@@ -2276,7 +5706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:43" ht="18.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>50</v>
       </c>
@@ -2407,7 +5837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:43" ht="18.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>51</v>
       </c>
@@ -2538,7 +5968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:43" ht="18.75" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>52</v>
       </c>
@@ -2669,7 +6099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:43" ht="18.75" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>53</v>
       </c>
@@ -2800,7 +6230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:43" ht="18.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>54</v>
       </c>
@@ -2932,21 +6362,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>